--- a/Dzwiek/Dzwiek.xlsx
+++ b/Dzwiek/Dzwiek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Documents\Studia\MISMaP\Pracownia I R\Pracownia-I-R\Dźwięk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Documents\Studia\MISMaP\Pracownia I R\Pracownia-I-R\Dzwiek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCC886F-5866-4DD7-A4B8-AA217A968126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE4F54-F575-421E-B947-DD265C6D532C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7214FAA8-3F7D-4D82-B8EC-85C7BF4D836D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>temperatura - 22,6C</t>
   </si>
@@ -63,13 +63,36 @@
   <si>
     <t>prędkość [m/s]</t>
   </si>
+  <si>
+    <t>ds. [m]</t>
+  </si>
+  <si>
+    <t>dt [s]</t>
+  </si>
+  <si>
+    <t>v [m/s]</t>
+  </si>
+  <si>
+    <t>l [cm]</t>
+  </si>
+  <si>
+    <t>u(l) [cm]</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>u(v)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,11 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -420,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E79508-DFA9-4141-ABA8-28D3E2053F65}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,6 +457,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1">
+        <f>273.15+22.6</f>
+        <v>295.75</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -469,9 +498,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -830,7 +857,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>6.5</v>
       </c>
@@ -859,7 +886,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>7</v>
       </c>
@@ -888,7 +915,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>7.5</v>
       </c>
@@ -916,8 +943,17 @@
         <f t="shared" si="0"/>
         <v>214.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>8</v>
       </c>
@@ -945,8 +981,20 @@
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <f>G20/100</f>
+        <v>0.08</v>
+      </c>
+      <c r="L20">
+        <f>H20/1000000</f>
+        <v>2.285E-4</v>
+      </c>
+      <c r="M20">
+        <f>K20/L20</f>
+        <v>350.10940919037199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -998,8 +1046,20 @@
       <c r="R23">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>40</v>
+      </c>
+      <c r="V23">
+        <v>45</v>
+      </c>
+      <c r="W23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1018,8 +1078,23 @@
       <c r="P24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U24">
+        <f>P50/25</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ref="V24:W24" si="1">Q50/25</f>
+        <v>0.76800000000000013</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1053,7 +1128,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1080,19 +1155,19 @@
         <v>0.90000000000000036</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" ref="J26:M41" si="1">C26-C$25</f>
+        <f t="shared" ref="J26:M41" si="2">C26-C$25</f>
         <v>0.79999999999999993</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="O26">
@@ -1111,7 +1186,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1134,42 +1209,57 @@
         <v>2</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" ref="I27:I50" si="2">B27-B$25</f>
+        <f t="shared" ref="I27:I50" si="3">B27-B$25</f>
         <v>1.7000000000000002</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="O27">
         <v>2</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" ref="P27:P50" si="3">AVERAGE(I27,L27)</f>
+        <f t="shared" ref="P27:P50" si="4">AVERAGE(I27,L27)</f>
         <v>1.7250000000000001</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" ref="Q27:Q50" si="4">J27</f>
+        <f t="shared" ref="Q27:Q50" si="5">J27</f>
         <v>1.6</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27:R50" si="5">AVERAGE(K27,M27)</f>
+        <f t="shared" ref="R27:R50" si="6">AVERAGE(K27,M27)</f>
         <v>1.4500000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T27" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" t="s">
+        <v>13</v>
+      </c>
+      <c r="W27" t="s">
+        <v>14</v>
+      </c>
+      <c r="X27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1192,42 +1282,61 @@
         <v>3</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5999999999999996</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1999999999999997</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.65</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1999999999999997</v>
       </c>
       <c r="O28">
         <v>3</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.625</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1999999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>40</v>
+      </c>
+      <c r="U28" s="5">
+        <f>U24</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="V28" s="5">
+        <f>0.07/25</f>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="W28" s="4">
+        <f>T28*U28</f>
+        <v>34.6</v>
+      </c>
+      <c r="X28" s="4">
+        <f>V28*T28</f>
+        <v>0.11200000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1250,42 +1359,61 @@
         <v>4</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4499999999999997</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
       <c r="O29">
         <v>4</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4749999999999996</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>45</v>
+      </c>
+      <c r="U29" s="5">
+        <f>V24</f>
+        <v>0.76800000000000013</v>
+      </c>
+      <c r="V29" s="5">
+        <f>0.1/25</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W29" s="4">
+        <f t="shared" ref="W29:W30" si="7">T29*U29</f>
+        <v>34.56</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" ref="X29:X30" si="8">V29*T29</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1308,42 +1436,61 @@
         <v>5</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3500000000000005</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="O30">
         <v>5</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3250000000000002</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>48</v>
+      </c>
+      <c r="U30" s="5">
+        <f>W24</f>
+        <v>0.72</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" ref="V29:V30" si="9">0.07/25</f>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" si="7"/>
+        <v>34.56</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="8"/>
+        <v>0.13440000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1366,42 +1513,42 @@
         <v>6</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1999999999999993</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6999999999999993</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3</v>
       </c>
       <c r="O31">
         <v>6</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2249999999999996</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6999999999999993</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1424,38 +1571,38 @@
         <v>7</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3999999999999995</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.15</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O32">
         <v>7</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.125</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3999999999999995</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.05</v>
       </c>
     </row>
@@ -1482,38 +1629,38 @@
         <v>8</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1999999999999993</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.95</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8</v>
       </c>
       <c r="O33">
         <v>8</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9749999999999996</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1999999999999993</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.8</v>
       </c>
     </row>
@@ -1540,38 +1687,38 @@
         <v>9</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8999999999999995</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.85</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="O34">
         <v>9</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8250000000000002</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8999999999999995</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
     </row>
@@ -1598,38 +1745,38 @@
         <v>10</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6999999999999993</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3</v>
       </c>
       <c r="O35">
         <v>10</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7249999999999996</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6999999999999993</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.25</v>
       </c>
     </row>
@@ -1656,38 +1803,38 @@
         <v>11</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9999999999999991</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5500000000000007</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9999999999999991</v>
       </c>
       <c r="O36">
         <v>11</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5250000000000004</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9999999999999991</v>
       </c>
     </row>
@@ -1714,38 +1861,38 @@
         <v>12</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.4</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.2999999999999989</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7000000000000011</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.450000000000001</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7000000000000011</v>
       </c>
       <c r="O37">
         <v>12</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.425000000000001</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.2999999999999989</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.7000000000000011</v>
       </c>
     </row>
@@ -1772,38 +1919,38 @@
         <v>13</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.3</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.35</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
       <c r="O38">
         <v>13</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.324999999999999</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4</v>
       </c>
     </row>
@@ -1830,38 +1977,38 @@
         <v>14</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.1</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.799999999999999</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.100000000000001</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.15</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.100000000000001</v>
       </c>
       <c r="O39">
         <v>14</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.125</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.799999999999999</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.100000000000001</v>
       </c>
     </row>
@@ -1888,38 +2035,38 @@
         <v>15</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.6</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.05</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
       <c r="O40">
         <v>15</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.025</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.6</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.8</v>
       </c>
     </row>
@@ -1946,38 +2093,38 @@
         <v>16</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.8</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.4</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.600000000000001</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.85</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.600000000000001</v>
       </c>
       <c r="O41">
         <v>16</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.824999999999999</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.4</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.600000000000001</v>
       </c>
     </row>
@@ -2004,38 +2151,38 @@
         <v>17</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.7</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" ref="J42:J50" si="6">C42-C$25</f>
+        <f t="shared" ref="J42:J50" si="10">C42-C$25</f>
         <v>13.1</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" ref="K42:K50" si="7">D42-D$25</f>
+        <f t="shared" ref="K42:K50" si="11">D42-D$25</f>
         <v>12.3</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" ref="L42:L50" si="8">E42-E$25</f>
+        <f t="shared" ref="L42:L50" si="12">E42-E$25</f>
         <v>14.75</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" ref="M42:M50" si="9">F42-F$25</f>
+        <f t="shared" ref="M42:M50" si="13">F42-F$25</f>
         <v>12.3</v>
       </c>
       <c r="O42">
         <v>17</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.725</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.1</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.3</v>
       </c>
     </row>
@@ -2062,38 +2209,38 @@
         <v>18</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.600000000000001</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>13.9</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>15.549999999999999</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="O43">
         <v>18</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.574999999999999</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.9</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
@@ -2120,38 +2267,38 @@
         <v>19</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.399999999999999</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>14.7</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13.700000000000001</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>16.45</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13.700000000000001</v>
       </c>
       <c r="O44">
         <v>19</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.424999999999997</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.7</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.700000000000001</v>
       </c>
     </row>
@@ -2178,38 +2325,38 @@
         <v>20</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.3</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>15.4</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14.4</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>17.349999999999998</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14.4</v>
       </c>
       <c r="O45">
         <v>20</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.324999999999999</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.4</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.4</v>
       </c>
     </row>
@@ -2236,38 +2383,38 @@
         <v>21</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.2</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>16.3</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15.100000000000001</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>18.149999999999999</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>15.100000000000001</v>
       </c>
       <c r="O46">
         <v>21</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.174999999999997</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.3</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.100000000000001</v>
       </c>
     </row>
@@ -2294,38 +2441,38 @@
         <v>22</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15.8</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>19.049999999999997</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>15.8</v>
       </c>
       <c r="O47">
         <v>22</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.024999999999999</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.8</v>
       </c>
     </row>
@@ -2352,38 +2499,38 @@
         <v>23</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.899999999999999</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>17.700000000000003</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16.600000000000001</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>19.95</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>16.600000000000001</v>
       </c>
       <c r="O48">
         <v>23</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.924999999999997</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.700000000000003</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.600000000000001</v>
       </c>
     </row>
@@ -2410,38 +2557,38 @@
         <v>24</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.8</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.5</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17.3</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20.75</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17.3</v>
       </c>
       <c r="O49">
         <v>24</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.774999999999999</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.5</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.3</v>
       </c>
     </row>
@@ -2468,38 +2615,38 @@
         <v>25</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.6</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>19.200000000000003</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>21.65</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="O50">
         <v>25</v>
       </c>
       <c r="P50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.625</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.200000000000003</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -2512,11 +2659,11 @@
         <v>346</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:R52" si="10">Q50*Q23*1000/$O$50/100</f>
+        <f t="shared" ref="Q52:R52" si="14">Q50*Q23*1000/$O$50/100</f>
         <v>345.60000000000008</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>345.6</v>
       </c>
     </row>
